--- a/prototype/excel_to_mysql/outputdata.xlsx
+++ b/prototype/excel_to_mysql/outputdata.xlsx
@@ -16,42 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>売上</t>
-  </si>
-  <si>
-    <t>客単価</t>
-  </si>
-  <si>
-    <t>40913</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>40914</t>
-  </si>
-  <si>
-    <t>4570</t>
-  </si>
-  <si>
-    <t>89.6</t>
-  </si>
-  <si>
-    <t>40915</t>
-  </si>
-  <si>
-    <t>4688</t>
-  </si>
-  <si>
-    <t>334.9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>多賀　聡</t>
+  </si>
+  <si>
+    <t>43873</t>
   </si>
 </sst>
 </file>
@@ -418,7 +400,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -453,61 +435,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
